--- a/Database_mining/Example_Data/alaC_mutations.xlsx
+++ b/Database_mining/Example_Data/alaC_mutations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitc-my.sharepoint.com/personal/kxmts01_cloud_uni-tuebingen_de/Documents/Dokumente/GitHub/CREATE_WebApplicaltion/Database_mining/Example_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921ED0A2B8E3F892D4CBE0DE43DD2799C8EC4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00896ED4-3F38-4FB5-A807-D04E205FED8D}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_23F921ED0A2B8E3F892D4CBE0DE43DD2799C8EC4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{005170E4-5C00-4593-A019-0B8AC4BFA0E3}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="3570" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>gene</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
     <t>Frequency</t>
   </si>
   <si>
@@ -541,7 +538,10 @@
     <t>221</t>
   </si>
   <si>
-    <t>aa mutation</t>
+    <t>mutation</t>
+  </si>
+  <si>
+    <t>aa position</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,24 +922,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>286</v>
@@ -947,13 +947,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3">
         <v>145</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <v>91</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5">
         <v>83</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6">
         <v>64</v>
@@ -1003,13 +1003,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7">
         <v>44</v>
@@ -1017,13 +1017,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8">
         <v>43</v>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9">
         <v>41</v>
@@ -1045,13 +1045,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10">
         <v>35</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <v>30</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12">
         <v>20</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14">
         <v>11</v>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16">
         <v>9</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -1157,13 +1157,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20">
         <v>6</v>
@@ -1199,13 +1199,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -1255,13 +1255,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -1269,13 +1269,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -1311,13 +1311,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1325,13 +1325,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -1381,13 +1381,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1395,13 +1395,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -1423,13 +1423,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -1479,13 +1479,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1493,13 +1493,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1507,13 +1507,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1549,13 +1549,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1619,13 +1619,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1647,13 +1647,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1661,13 +1661,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1675,13 +1675,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1689,13 +1689,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1703,13 +1703,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -1759,13 +1759,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1787,13 +1787,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1801,13 +1801,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -1815,13 +1815,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1829,13 +1829,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -1843,13 +1843,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -1857,13 +1857,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -1871,13 +1871,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -1885,13 +1885,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -1899,13 +1899,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -1913,13 +1913,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1927,13 +1927,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1941,13 +1941,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -1955,13 +1955,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -1969,13 +1969,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -1983,13 +1983,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -1997,13 +1997,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -2025,13 +2025,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -2039,13 +2039,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2053,13 +2053,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -2067,13 +2067,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -2081,13 +2081,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -2095,13 +2095,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -2109,13 +2109,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -2123,13 +2123,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2137,13 +2137,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -2151,13 +2151,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D89">
         <v>1</v>
